--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index_by_region.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index_by_region.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +432,6 @@
       <c r="G1" t="n">
         <v>2022</v>
       </c>
-      <c r="K1" t="n">
-        <v>2023</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,16 +484,6 @@
           <t>4 кв</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1 кв</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2 кв</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,12 +517,6 @@
       </c>
       <c r="J3" t="n">
         <v>102.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>101.2</v>
       </c>
     </row>
     <row r="4">
@@ -559,12 +540,6 @@
       <c r="J4" t="n">
         <v>104.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>99.90000000000001</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,12 +574,6 @@
       <c r="J5" t="n">
         <v>104.3</v>
       </c>
-      <c r="K5" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>101.9</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -639,12 +608,6 @@
       <c r="J6" t="n">
         <v>103.9</v>
       </c>
-      <c r="K6" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>103</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,12 +642,6 @@
       <c r="J7" t="n">
         <v>90.59999999999999</v>
       </c>
-      <c r="K7" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>98.8</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -719,12 +676,6 @@
       <c r="J8" t="n">
         <v>111.4</v>
       </c>
-      <c r="K8" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -759,12 +710,6 @@
       <c r="J9" t="n">
         <v>104.9</v>
       </c>
-      <c r="K9" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>101.7</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -798,12 +743,6 @@
       </c>
       <c r="J10" t="n">
         <v>95.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>97</v>
-      </c>
-      <c r="L10" t="n">
-        <v>97.5</v>
       </c>
     </row>
     <row r="11">
@@ -827,12 +766,6 @@
       <c r="J11" t="n">
         <v>100.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>97.7</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -867,12 +800,6 @@
       <c r="J12" t="n">
         <v>102.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>102.5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -907,12 +834,6 @@
       <c r="J13" t="n">
         <v>105</v>
       </c>
-      <c r="K13" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>104.2</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -947,12 +868,6 @@
       <c r="J14" t="n">
         <v>101.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -987,12 +902,6 @@
       <c r="J15" t="n">
         <v>107.8</v>
       </c>
-      <c r="K15" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>98.59999999999999</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1027,12 +936,6 @@
       <c r="J16" t="n">
         <v>105.1</v>
       </c>
-      <c r="K16" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>104.7</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1067,12 +970,6 @@
       <c r="J17" t="n">
         <v>99.3</v>
       </c>
-      <c r="K17" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.5</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1106,12 +1003,6 @@
       </c>
       <c r="J18" t="n">
         <v>97.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L18" t="n">
-        <v>97.5</v>
       </c>
     </row>
     <row r="19">
@@ -1135,12 +1026,6 @@
       <c r="J19" t="n">
         <v>112.4</v>
       </c>
-      <c r="K19" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>106.1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1175,12 +1060,6 @@
       <c r="J20" t="n">
         <v>100.8</v>
       </c>
-      <c r="K20" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>102.7</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1215,12 +1094,6 @@
       <c r="J21" t="n">
         <v>98</v>
       </c>
-      <c r="K21" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>101.8</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1255,12 +1128,6 @@
       <c r="J22" t="n">
         <v>100.3</v>
       </c>
-      <c r="K22" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L22" t="n">
-        <v>103.4</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1295,18 +1162,11 @@
       <c r="J23" t="n">
         <v>100.3</v>
       </c>
-      <c r="K23" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>101.6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index_by_region.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index_by_region.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,9 @@
       <c r="G1" t="n">
         <v>2022</v>
       </c>
+      <c r="K1" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +487,21 @@
           <t>4 кв</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1 кв</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2 кв</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 кв</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -517,6 +535,15 @@
       </c>
       <c r="J3" t="n">
         <v>102.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>103.5</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +559,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>107</v>
+        <v>107.3</v>
       </c>
       <c r="I4" t="n">
         <v>103</v>
@@ -540,6 +567,15 @@
       <c r="J4" t="n">
         <v>104.1</v>
       </c>
+      <c r="K4" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -574,6 +610,15 @@
       <c r="J5" t="n">
         <v>104.3</v>
       </c>
+      <c r="K5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>103.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -608,6 +653,15 @@
       <c r="J6" t="n">
         <v>103.9</v>
       </c>
+      <c r="K6" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>103</v>
+      </c>
+      <c r="M6" t="n">
+        <v>106.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,6 +696,15 @@
       <c r="J7" t="n">
         <v>90.59999999999999</v>
       </c>
+      <c r="K7" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -676,6 +739,15 @@
       <c r="J8" t="n">
         <v>111.4</v>
       </c>
+      <c r="K8" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -710,6 +782,15 @@
       <c r="J9" t="n">
         <v>104.9</v>
       </c>
+      <c r="K9" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -743,6 +824,15 @@
       </c>
       <c r="J10" t="n">
         <v>95.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>97</v>
+      </c>
+      <c r="L10" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>105.3</v>
       </c>
     </row>
     <row r="11">
@@ -758,7 +848,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>111</v>
+        <v>110.7</v>
       </c>
       <c r="I11" t="n">
         <v>100.5</v>
@@ -766,6 +856,15 @@
       <c r="J11" t="n">
         <v>100.9</v>
       </c>
+      <c r="K11" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -800,6 +899,15 @@
       <c r="J12" t="n">
         <v>102.2</v>
       </c>
+      <c r="K12" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -834,6 +942,15 @@
       <c r="J13" t="n">
         <v>105</v>
       </c>
+      <c r="K13" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,6 +985,15 @@
       <c r="J14" t="n">
         <v>101.1</v>
       </c>
+      <c r="K14" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>98</v>
+      </c>
+      <c r="M14" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -902,6 +1028,15 @@
       <c r="J15" t="n">
         <v>107.8</v>
       </c>
+      <c r="K15" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -936,6 +1071,15 @@
       <c r="J16" t="n">
         <v>105.1</v>
       </c>
+      <c r="K16" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -970,6 +1114,15 @@
       <c r="J17" t="n">
         <v>99.3</v>
       </c>
+      <c r="K17" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>97.59999999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1003,6 +1156,15 @@
       </c>
       <c r="J18" t="n">
         <v>97.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>101.8</v>
       </c>
     </row>
     <row r="19">
@@ -1018,7 +1180,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>112</v>
+        <v>112.3</v>
       </c>
       <c r="I19" t="n">
         <v>117.8</v>
@@ -1026,6 +1188,15 @@
       <c r="J19" t="n">
         <v>112.4</v>
       </c>
+      <c r="K19" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1060,6 +1231,15 @@
       <c r="J20" t="n">
         <v>100.8</v>
       </c>
+      <c r="K20" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>103.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1094,6 +1274,15 @@
       <c r="J21" t="n">
         <v>98</v>
       </c>
+      <c r="K21" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>101.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1128,6 +1317,15 @@
       <c r="J22" t="n">
         <v>100.3</v>
       </c>
+      <c r="K22" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1162,11 +1360,21 @@
       <c r="J23" t="n">
         <v>100.3</v>
       </c>
+      <c r="K23" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>104.2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
